--- a/zosma/test/system_test.xlsx
+++ b/zosma/test/system_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +66,203 @@
   </si>
   <si>
     <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索する</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを起動する</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件に該当する家計簿が登録されている場合</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件に該当する家計簿が登録されていない場合</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件を入力する</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタンを押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ画面が表示されていること</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： invalid_date
+内容： システムテスト用データ
+カテゴリ： テスト
+金額： 100</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・日付にチェックマークが表示されていること
+・「日付が不正です」というメッセージが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-01
+内容： システムテスト用データ
+カテゴリ： テスト
+金額： 100</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チェックマークが表示されていないこと
+・テーブルに家計簿が表示されていること</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-02
+内容： システムテスト用データ
+カテゴリ： テスト
+金額： 100</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チェックマークが表示されていないこと
+・テーブルに家計簿が表示されていないこと</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -626,6 +823,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -636,15 +857,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,9 +871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -670,18 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="199">
@@ -1253,113 +1450,113 @@
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="11">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="19" thickBot="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
@@ -1396,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1437,73 +1634,135 @@
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="20">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="57">
+      <c r="B4" s="20"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="5"/>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="20"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="57">
       <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="5"/>
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="21"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="19" thickBot="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="H7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="57">
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="32" thickBot="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zosma/test/system_test.xlsx
+++ b/zosma/test/system_test.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="正常系" sheetId="1" r:id="rId1"/>
-    <sheet name="異常系" sheetId="2" r:id="rId2"/>
+    <sheet name="家計簿を検索する" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -35,9 +34,6 @@
       <t>キタイケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>条件</t>
@@ -180,26 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・日付にチェックマークが表示されていること
-・「日付が不正です」というメッセージが表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付： 1000-01-01
 内容： システムテスト用データ
 カテゴリ： テスト
@@ -219,20 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・チェックマークが表示されていないこと
-・テーブルに家計簿が表示されていること</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付： 1000-01-02
 内容： システムテスト用データ
 カテゴリ： テスト
@@ -252,15 +214,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・チェックマークが表示されていないこと
-・テーブルに家計簿が表示されていないこと</t>
-    <rPh sb="9" eb="11">
+    <t>・「日付が不正です」というメッセージが表示されていること</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="26" eb="29">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テーブルに家計簿が表示されていること</t>
+    <rPh sb="6" eb="9">
       <t>カケイボ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テーブルに家計簿が表示されていないこと</t>
+    <rPh sb="6" eb="9">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -319,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -491,33 +472,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -799,7 +754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -823,39 +778,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -865,19 +817,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1434,272 +1380,88 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="19">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="20"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+    <row r="4" spans="2:8" ht="57">
+      <c r="B4" s="18"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="21"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="25"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+    <row r="6" spans="2:8" ht="57">
+      <c r="B6" s="18"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="21"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="25"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="20"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="21"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="25"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="20"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" ht="19" thickBot="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" customWidth="1"/>
-    <col min="8" max="8" width="56.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="19" thickBot="1"/>
-    <row r="2" spans="2:8" ht="19" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="25">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="57">
-      <c r="B4" s="20"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="20"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="57">
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="31">
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
@@ -1707,50 +1469,50 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="57">
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="32" thickBot="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="16"/>
+    <row r="10" spans="2:8" ht="19" thickBot="1">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/zosma/test/system_test.xlsx
+++ b/zosma/test/system_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -144,16 +144,6 @@
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリ画面が表示されていること</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -214,34 +204,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「日付が不正です」というメッセージが表示されていること</t>
-    <rPh sb="2" eb="4">
+    <t>・検索フォームに文字が表示されていないこと
+・チェックマークが表示されていないこと
+・メッセージが表示されていないこと
+・テーブルに何も表示されていないこと</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・日付部分に赤色の「×」が表示されていること
+・「日付が不正です」というメッセージが表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヒヅケブブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
       <t>ヒヅケ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="28" eb="30">
       <t>フセイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="42" eb="44">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・テーブルに家計簿が表示されていること</t>
-    <rPh sb="6" eb="9">
+    <t>・チェックマークが表示されていないこと
+・メッセージが表示されていないこと
+・テーブルに家計簿が表示されていること</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
       <t>カケイボ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="48" eb="50">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・テーブルに家計簿が表示されていないこと</t>
-    <rPh sb="6" eb="9">
+    <t>・検索フォームに文字が表示されていないこと
+・チェックマークが表示されていないこと
+・メッセージが表示されていないこと
+・テーブルに何も表示されていないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チェックマークが表示されていないこと
+・メッセージが表示されていないこと
+・テーブルに家計簿が表示されていないこと</t>
+    <rPh sb="44" eb="47">
       <t>カケイボ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="48" eb="50">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -778,53 +823,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="199">
@@ -1358,7 +1403,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1395,17 +1440,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="22">
+    <row r="3" spans="2:8" ht="57">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1413,27 +1458,27 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="57">
-      <c r="B4" s="18"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="18"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="14"/>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1443,23 +1488,23 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="57">
-      <c r="B6" s="18"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="19"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
+    <row r="7" spans="2:8" ht="44">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1468,17 +1513,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="22">
+    <row r="8" spans="2:8" ht="57">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1486,33 +1531,33 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="57">
-      <c r="B9" s="18"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="19" thickBot="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="15"/>
+    <row r="10" spans="2:8" ht="45" thickBot="1">
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/zosma/test/system_test.xlsx
+++ b/zosma/test/system_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家計簿を検索する</t>
     <rPh sb="0" eb="3">
       <t>カケイボ</t>
@@ -140,10 +136,6 @@
     <rPh sb="6" eb="8">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -255,24 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・チェックマークが表示されていないこと
-・メッセージが表示されていないこと
-・テーブルに家計簿が表示されていること</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・検索フォームに文字が表示されていないこと
 ・チェックマークが表示されていないこと
 ・メッセージが表示されていないこと
@@ -281,14 +255,45 @@
   </si>
   <si>
     <t>・チェックマークが表示されていないこと
-・メッセージが表示されていないこと
-・テーブルに家計簿が表示されていないこと</t>
+・テーブルに家計簿が表示されていること
+・「１件取得しました」というメッセージが表示されていること</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ケンシュトク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チェックマークが表示されていないこと
+・テーブルに家計簿が表示されていないこと
+・「０件取得しました」というメッセージが表示されていること</t>
+    <rPh sb="26" eb="29">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
     <rPh sb="44" eb="47">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
+      <t>ケンシュトク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1403,7 +1408,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1445,20 +1450,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="57">
@@ -1467,10 +1472,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="21"/>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1480,11 +1485,11 @@
       <c r="D5" s="18"/>
       <c r="E5" s="21"/>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="57">
@@ -1493,10 +1498,10 @@
       <c r="D6" s="18"/>
       <c r="E6" s="21"/>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1506,11 +1511,11 @@
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="57">
@@ -1518,20 +1523,20 @@
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="57">
@@ -1540,10 +1545,10 @@
       <c r="D9" s="18"/>
       <c r="E9" s="21"/>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1553,11 +1558,11 @@
       <c r="D10" s="19"/>
       <c r="E10" s="22"/>
       <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/zosma/test/system_test.xlsx
+++ b/zosma/test/system_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +294,51 @@
   </si>
   <si>
     <t>1.0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件を指定しない場合</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チェックマークが表示されていないこと
+・テーブルに家計簿が表示されていること
+・「２件取得しました」というメッセージが表示されていること
+・日付の降順でソートされていること</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ケンシュトク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>コウジュン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -350,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -475,6 +520,108 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -482,9 +629,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -497,9 +642,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -509,7 +652,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -522,81 +667,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -804,7 +877,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -819,14 +892,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -834,47 +910,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="199">
@@ -1405,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1446,16 +1545,16 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="57">
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1467,10 +1566,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="57">
-      <c r="B4" s="12"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1480,10 +1579,10 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1493,10 +1592,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="57">
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1506,10 +1605,10 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="44">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1519,16 +1618,16 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="57">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1540,10 +1639,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="57">
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1552,21 +1651,59 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="45" thickBot="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="8" t="s">
+    <row r="10" spans="2:8" ht="44">
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="57">
+      <c r="B11" s="23">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="58" thickBot="1">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="36" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>

--- a/zosma/test/system_test.xlsx
+++ b/zosma/test/system_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="家計簿を検索する" sheetId="2" r:id="rId1"/>
@@ -139,63 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付： invalid_date
-内容： システムテスト用データ
-カテゴリ： テスト
-金額： 100</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付： 1000-01-01
-内容： システムテスト用データ
-カテゴリ： テスト
-金額： 100</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付： 1000-01-02
-内容： システムテスト用データ
-カテゴリ： テスト
-金額： 100</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・検索フォームに文字が表示されていないこと
 ・チェックマークが表示されていないこと
 ・メッセージが表示されていないこと
@@ -338,6 +281,63 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： invalid_date
+内容： システムテスト用データ
+カテゴリ： zosma
+金額： 100</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-01
+内容： システムテスト用データ
+カテゴリ： zosma
+金額： 100</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付： 1000-01-03
+内容： システムテスト用データ
+カテゴリ： zosma
+金額： 100</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -892,6 +892,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -927,53 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="199">
@@ -1507,7 +1507,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1545,16 +1545,16 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="57">
-      <c r="B3" s="8">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1562,72 +1562,72 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="57">
-      <c r="B4" s="9"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="57">
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="44">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="57">
-      <c r="B8" s="8">
+      <c r="B8" s="25">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1635,71 +1635,75 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="57">
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="44">
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>20</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="57">
-      <c r="B11" s="23">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="35" t="s">
-        <v>16</v>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="58" thickBot="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="36" t="s">
-        <v>24</v>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="E11:E12"/>
@@ -1708,10 +1712,6 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
